--- a/data/trans_camb/P25_12-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25_12-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>8,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,73</t>
+          <t>-3,95</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,94</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>12,95</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,12</t>
+          <t>-0,58</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-4,43</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5,33</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3,25</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>10,9</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-2,67</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-0,78</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 6,38</t>
+          <t>-0,79; 10,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 4,41</t>
+          <t>-2,01; 8,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 7,38</t>
+          <t>3,14; 16,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 13,24</t>
+          <t>-12,47; 3,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 10,57</t>
+          <t>-3,59; 9,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,59; 26,49</t>
+          <t>0,64; 13,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 8,25</t>
+          <t>-1,3; 10,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 6,52</t>
+          <t>5,37; 21,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,24; 14,19</t>
+          <t>-9,58; 9,39</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-15,87; 5,68</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1,69; 10,21</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-0,28; 7,15</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>6,49; 16,99</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-8,83; 4,16</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-6,46; 5,4</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>97,02%</t>
+          <t>173,47%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>32,52%</t>
+          <t>94,97%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>117,52%</t>
+          <t>406,59%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>119,74%</t>
+          <t>-36,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>80,93%</t>
+          <t>51,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>301,41%</t>
+          <t>119,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>116,06%</t>
+          <t>74,88%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>70,77%</t>
+          <t>224,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>240,54%</t>
+          <t>-3,11%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-19,63%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>137,03%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>83,48%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>280,37%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-18,03%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-6,04%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-67,1; 985,07</t>
+          <t>-80,15; 1500,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 1098,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-68,94; 1273,44</t>
+          <t>33,21; 1891,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,7; 457,02</t>
+          <t>-79,44; 56,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 338,77</t>
+          <t>-61,82; 421,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>82,84; 782,31</t>
+          <t>1,62; 427,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,27; 335,45</t>
+          <t>-22,18; 309,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 276,78</t>
+          <t>60,12; 666,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>64,89; 551,4</t>
+          <t>-41,27; 68,44</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-54,62; 34,56</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>18,95; 415,98</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-11,87; 299,92</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>109,29; 746,96</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-48,13; 36,03</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-41,88; 59,32</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>-2,95</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,81</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,91</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>-5,64</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,21</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>5,39</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,93</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-4,23</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,85</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,08</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,4</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 1,0</t>
+          <t>-7,87; 0,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 11,96</t>
+          <t>-4,24; 9,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 9,28</t>
+          <t>-4,68; 7,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,91; -0,12</t>
+          <t>-5,88; 7,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 3,07</t>
+          <t>-8,1; 5,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 9,21</t>
+          <t>-12,4; 0,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,76; -0,62</t>
+          <t>-10,69; 3,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 4,81</t>
+          <t>-3,12; 13,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 7,51</t>
+          <t>-7,15; 8,86</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-4,68; 11,45</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-8,26; -0,39</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-5,07; 4,57</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,78; 7,95</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-4,75; 5,93</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-4,46; 6,63</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-45,27%</t>
+          <t>-46,55%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>15,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>43,01%</t>
+          <t>18,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-43,94%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-22,01%</t>
+          <t>-11,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>-42,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-44,48%</t>
+          <t>-21,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-8,78%</t>
+          <t>40,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>3,33%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>25,71%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-44,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-8,88%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>32,08%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>4,62%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>11,77%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-82,6; 37,31</t>
+          <t>-82,54; 37,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-60,29; 281,27</t>
+          <t>-58,22; 258,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-44,41; 234,17</t>
+          <t>-53,34; 153,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-71,31; -0,83</t>
+          <t>-58,87; 163,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-57,08; 36,04</t>
+          <t>-65,75; 133,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,4; 92,9</t>
+          <t>-70,13; 10,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-69,36; -5,1</t>
+          <t>-59,85; 43,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,46; 71,41</t>
+          <t>-18,15; 140,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 106,47</t>
+          <t>-32,11; 62,35</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-23,77; 101,57</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-67,04; -4,54</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-43,34; 63,19</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-16,77; 107,04</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-33,23; 57,19</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-30,18; 71,38</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,01</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>6,86</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7,09</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,92</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,75</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>4,03</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>4,91</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 3,25</t>
+          <t>-6,71; 2,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 1,64</t>
+          <t>-8,01; 1,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 6,12</t>
+          <t>-3,72; 6,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 8,2</t>
+          <t>-3,45; 7,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 2,64</t>
+          <t>-2,29; 9,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 8,74</t>
+          <t>-1,98; 9,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 4,25</t>
+          <t>-6,76; 3,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 1,08</t>
+          <t>-2,23; 9,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 5,33</t>
+          <t>-0,79; 13,88</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 15,06</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,61; 4,54</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-5,55; 1,27</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,53; 6,63</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-0,76; 8,7</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0,47; 9,79</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-10,67%</t>
+          <t>-18,79%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-33,41%</t>
+          <t>-39,03%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22,33%</t>
+          <t>23,17%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>27,43%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-17,44%</t>
+          <t>39,56%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>22,88%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>-9,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-21,09%</t>
+          <t>27,2%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>37,74%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>39,48%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>10,54%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-18,28%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>26,23%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>30,38%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>39,74%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-63,01; 89,46</t>
+          <t>-67,35; 74,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-73,73; 54,42</t>
+          <t>-77,03; 36,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-44,83; 157,03</t>
+          <t>-45,83; 163,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,27; 69,83</t>
+          <t>-34,95; 146,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-44,73; 22,99</t>
+          <t>-25,39; 189,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-26,32; 72,21</t>
+          <t>-12,49; 78,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-27,68; 48,29</t>
+          <t>-38,9; 30,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-48,48; 14,72</t>
+          <t>-13,25; 85,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-24,68; 60,56</t>
+          <t>-4,45; 89,03</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 102,79</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-20,05; 53,52</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-43,45; 15,89</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-12,08; 80,57</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-5,18; 77,23</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>2,98; 94,07</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,72</t>
+          <t>7,71</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>5,91</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,42</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,11</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>5,08</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,95</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2,74</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 7,73</t>
+          <t>-0,25; 7,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,55; 12,45</t>
+          <t>3,64; 12,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,46; 10,31</t>
+          <t>1,52; 10,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 8,5</t>
+          <t>-3,27; 9,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 8,49</t>
+          <t>-1,8; 11,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 12,74</t>
+          <t>-4,59; 7,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 6,57</t>
+          <t>-2,94; 8,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,12; 9,08</t>
+          <t>-2,14; 10,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,4; 9,05</t>
+          <t>-5,3; 8,74</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-6,08; 8,65</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 6,52</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0,88; 8,6</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1,05; 9,08</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-2,69; 6,78</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-2,43; 7,69</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>76,32%</t>
+          <t>68,99%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>161,3%</t>
+          <t>150,56%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>99,81%</t>
+          <t>115,51%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>24,97%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>16,46%</t>
+          <t>44,19%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>31,8%</t>
+          <t>12,56%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>26,73%</t>
+          <t>14,95%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>45,9%</t>
+          <t>25,18%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>40,98%</t>
+          <t>6,58%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>3,85%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>24,63%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>44,31%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>43,86%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>11,84%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>17,46%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 252,19</t>
+          <t>-9,63; 242,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>42,71; 406,63</t>
+          <t>38,97; 373,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 297,66</t>
+          <t>16,2; 307,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-16,4; 60,78</t>
+          <t>-24,24; 112,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,58; 60,66</t>
+          <t>-15,02; 180,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 91,06</t>
+          <t>-23,53; 50,18</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 70,27</t>
+          <t>-14,92; 60,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,91; 99,83</t>
+          <t>-10,76; 71,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,06; 98,43</t>
+          <t>-21,56; 48,58</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-23,95; 46,25</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-7,28; 65,89</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>5,29; 87,71</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>6,9; 89,4</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-14,87; 44,98</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-13,96; 56,85</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>11,16</t>
+          <t>8,58</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-3,18</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>11,42</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>8,34</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>11,53</t>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-3,01</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>8,55</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>2,93</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 4,56</t>
+          <t>-3,82; 4,93</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 7,72</t>
+          <t>-1,34; 7,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,32; 17,72</t>
+          <t>3,31; 15,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 6,76</t>
+          <t>-1,96; 13,59</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 4,19</t>
+          <t>-4,45; 11,88</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,73; 18,6</t>
+          <t>-7,99; 6,87</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 4,54</t>
+          <t>-10,32; 3,57</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 4,18</t>
+          <t>-0,3; 16,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,31; 16,59</t>
+          <t>-8,85; 9,42</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-10,69; 6,13</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-4,4; 4,23</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-4,16; 4,13</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>2,98; 13,98</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-2,96; 8,84</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-5,55; 6,24</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>61,67%</t>
+          <t>55,82%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>209,55%</t>
+          <t>153,09%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-3,3%</t>
+          <t>40,96%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-15,71%</t>
+          <t>21,27%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>56,47%</t>
+          <t>-1,13%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-0,7%</t>
+          <t>-14,99%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>41,58%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>89,47%</t>
+          <t>0,82%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-9,51%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>0,52%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>66,17%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>13,65%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-0,07%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-51,59; 131,91</t>
+          <t>-48,13; 138,3</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-22,48; 227,08</t>
+          <t>-18,9; 193,52</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>66,74; 525,75</t>
+          <t>32,15; 411,12</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-34,98; 41,87</t>
+          <t>-12,49; 131,15</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-44,06; 26,12</t>
+          <t>-23,67; 95,57</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>10,91; 112,81</t>
+          <t>-33,03; 42,76</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-30,63; 43,3</t>
+          <t>-42,49; 22,34</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-32,2; 39,27</t>
+          <t>-1,69; 98,81</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>41,3; 154,75</t>
+          <t>-27,46; 41,18</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-30,84; 22,45</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-29,46; 38,71</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-28,26; 38,26</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>17,58; 126,44</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-12,02; 48,02</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-20,55; 30,22</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-3,43</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>8,67</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>8,39</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>6,07</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>3,01</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>4,09</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>4,31</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>5,15</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 9,12</t>
+          <t>-8,37; 8,19</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 4,64</t>
+          <t>-10,14; 4,26</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 2,63</t>
+          <t>-7,32; 9,15</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 12,35</t>
+          <t>-9,17; 6,08</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 8,8</t>
+          <t>-2,33; 10,54</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 17,69</t>
+          <t>-3,5; 11,71</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 8,03</t>
+          <t>-4,94; 10,46</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 5,31</t>
+          <t>-2,04; 14,54</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 10,09</t>
+          <t>-1,87; 17,74</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-4,12; 16,66</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-3,56; 7,79</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-4,88; 6,41</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-2,41; 9,48</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-2,13; 11,14</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 11,79</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-19,64%</t>
+          <t>-22,86%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-39,45%</t>
+          <t>24,14%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>37,29%</t>
+          <t>-16,72%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>68,61%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>67,4%</t>
+          <t>33,55%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>28,9%</t>
+          <t>17,78%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>42,22%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>32,3%</t>
+          <t>43,64%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>28,2%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>26,5%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>4,41%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>35,94%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>27,91%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>35,27%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-63,96; 175,32</t>
+          <t>-61,21; 149,95</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-74,72; 87,44</t>
+          <t>-77,72; 89,7</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-85,4; 68,7</t>
+          <t>-60,3; 172,52</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 124,03</t>
+          <t>-60,57; 93,31</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-30,99; 98,78</t>
+          <t>-39,88; 378,8</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 190,34</t>
+          <t>-21,05; 120,65</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-19,68; 94,09</t>
+          <t>-30,32; 101,19</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-36,53; 65,3</t>
+          <t>-13,68; 146,13</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-20,23; 116,73</t>
+          <t>-7,74; 117,74</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-15,32; 104,11</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-24,8; 88,14</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-34,75; 77,18</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-17,64; 110,79</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-11,56; 87,42</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-9,28; 100,87</t>
         </is>
       </c>
     </row>
@@ -1928,7 +2696,7 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
@@ -1938,37 +2706,67 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>7,49</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>6,39</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>3,4</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>2,23</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1,36</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>5,43</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>2,13</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>2,45</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 2,74</t>
+          <t>-1,37; 2,9</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 3,86</t>
+          <t>-1,05; 3,83</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,67; 5,16</t>
+          <t>2,14; 7,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 4,34</t>
+          <t>-2,04; 3,94</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 2,78</t>
+          <t>0,07; 5,38</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,04; 10,96</t>
+          <t>-0,45; 4,78</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 2,73</t>
+          <t>-2,21; 3,18</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 2,54</t>
+          <t>3,41; 9,39</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,18; 7,47</t>
+          <t>0,03; 6,95</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-1,38; 6,01</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-0,43; 3,15</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-0,75; 2,58</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>3,56; 7,54</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-0,09; 4,54</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 4,82</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>12,11%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>27,46%</t>
+          <t>26,31%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>55,45%</t>
+          <t>76,4%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>30,49%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>52,16%</t>
+          <t>13,79%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>44,68%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>51,72%</t>
+          <t>16,47%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>10,21%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>13,42%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>9,19%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>53,64%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>13,69%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>16,07%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-20,84; 63,21</t>
+          <t>-19,78; 64,68</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 87,57</t>
+          <t>-14,8; 79,93</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>8,45; 111,76</t>
+          <t>30,3; 148,65</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 33,66</t>
+          <t>-17,29; 43,63</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 21,81</t>
+          <t>0,16; 73,0</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>24,79; 83,29</t>
+          <t>-2,84; 37,19</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 29,73</t>
+          <t>-14,27; 24,99</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 27,54</t>
+          <t>21,7; 71,81</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>27,73; 80,83</t>
+          <t>0,25; 36,29</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-5,71; 30,14</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-4,5; 33,18</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-6,9; 27,16</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>32,2; 80,42</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-0,52; 31,88</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 33,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
